--- a/dfh.xlsx
+++ b/dfh.xlsx
@@ -14,42 +14,36 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="10">
   <si>
     <t>姓名</t>
   </si>
   <si>
+    <t>b4</t>
+  </si>
+  <si>
+    <t>b1</t>
+  </si>
+  <si>
+    <t>b3</t>
+  </si>
+  <si>
+    <t>a4</t>
+  </si>
+  <si>
+    <t>a3</t>
+  </si>
+  <si>
+    <t>b2</t>
+  </si>
+  <si>
+    <t>a5</t>
+  </si>
+  <si>
     <t>a1</t>
   </si>
   <si>
     <t>a2</t>
-  </si>
-  <si>
-    <t>a3</t>
-  </si>
-  <si>
-    <t>a4</t>
-  </si>
-  <si>
-    <t>b1</t>
-  </si>
-  <si>
-    <t>b2</t>
-  </si>
-  <si>
-    <t>c1</t>
-  </si>
-  <si>
-    <t>c2</t>
-  </si>
-  <si>
-    <t>a5</t>
-  </si>
-  <si>
-    <t>b3</t>
-  </si>
-  <si>
-    <t>b4</t>
   </si>
 </sst>
 </file>
@@ -407,199 +401,180 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B24"/>
+  <dimension ref="A1:A34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:2">
-      <c r="B1" s="1" t="s">
+    <row r="1" spans="1:1">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:2">
-      <c r="A2" s="1">
-        <v>0</v>
-      </c>
-      <c r="B2" t="s">
+    <row r="2" spans="1:1">
+      <c r="A2" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:2">
-      <c r="A3" s="1">
+    <row r="3" spans="1:1">
+      <c r="A3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1">
+      <c r="A4" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1">
+      <c r="A5" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1">
+      <c r="A6" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1">
+      <c r="A7" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1">
+      <c r="A8" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1">
+      <c r="A9" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1">
+      <c r="A10" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1">
+      <c r="A11" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1">
+      <c r="A12" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1">
+      <c r="A13" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1">
+      <c r="A14" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1">
+      <c r="A15" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1">
+      <c r="A16" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1">
+      <c r="A17" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1">
+      <c r="A18" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1">
+      <c r="A19" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1">
+      <c r="A20" t="s">
         <v>1</v>
       </c>
-      <c r="B3" t="s">
+    </row>
+    <row r="21" spans="1:1">
+      <c r="A21" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:2">
-      <c r="A4" s="1">
+    <row r="22" spans="1:1">
+      <c r="A22" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1">
+      <c r="A23" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1">
+      <c r="A24" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1">
+      <c r="A25" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1">
+      <c r="A26" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1">
+      <c r="A27" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1">
+      <c r="A28" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1">
+      <c r="A29" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1">
+      <c r="A30" t="s">
         <v>2</v>
       </c>
-      <c r="B4" t="s">
+    </row>
+    <row r="31" spans="1:1">
+      <c r="A31" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:2">
-      <c r="A5" s="1">
-        <v>3</v>
-      </c>
-      <c r="B5" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2">
-      <c r="A6" s="1">
-        <v>4</v>
-      </c>
-      <c r="B6" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2">
-      <c r="A7" s="1">
-        <v>5</v>
-      </c>
-      <c r="B7" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2">
-      <c r="A8" s="1">
-        <v>6</v>
-      </c>
-      <c r="B8" t="s">
+    <row r="32" spans="1:1">
+      <c r="A32" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:2">
-      <c r="A9" s="1">
-        <v>7</v>
-      </c>
-      <c r="B9" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2">
-      <c r="A10" s="1">
-        <v>8</v>
-      </c>
-      <c r="B10" t="s">
+    <row r="33" spans="1:1">
+      <c r="A33" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="11" spans="1:2">
-      <c r="A11" s="1">
-        <v>9</v>
-      </c>
-      <c r="B11" t="s">
+    <row r="34" spans="1:1">
+      <c r="A34" t="s">
         <v>1</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2">
-      <c r="A12" s="1">
-        <v>10</v>
-      </c>
-      <c r="B12" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2">
-      <c r="A13" s="1">
-        <v>11</v>
-      </c>
-      <c r="B13" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2">
-      <c r="A14" s="1">
-        <v>12</v>
-      </c>
-      <c r="B14" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2">
-      <c r="A15" s="1">
-        <v>13</v>
-      </c>
-      <c r="B15" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2">
-      <c r="A16" s="1">
-        <v>14</v>
-      </c>
-      <c r="B16" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2">
-      <c r="A17" s="1">
-        <v>15</v>
-      </c>
-      <c r="B17" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2">
-      <c r="A18" s="1">
-        <v>16</v>
-      </c>
-      <c r="B18" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2">
-      <c r="A19" s="1">
-        <v>17</v>
-      </c>
-      <c r="B19" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2">
-      <c r="A20" s="1">
-        <v>18</v>
-      </c>
-      <c r="B20" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2">
-      <c r="A21" s="1">
-        <v>19</v>
-      </c>
-      <c r="B21" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2">
-      <c r="A22" s="1">
-        <v>20</v>
-      </c>
-      <c r="B22" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2">
-      <c r="A23" s="1">
-        <v>21</v>
-      </c>
-      <c r="B23" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2">
-      <c r="A24" s="1">
-        <v>22</v>
-      </c>
-      <c r="B24" t="s">
-        <v>8</v>
       </c>
     </row>
   </sheetData>

--- a/dfh.xlsx
+++ b/dfh.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="10">
   <si>
     <t>姓名</t>
   </si>
@@ -401,7 +401,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:A34"/>
+  <dimension ref="A1:A48"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -577,6 +577,76 @@
         <v>1</v>
       </c>
     </row>
+    <row r="35" spans="1:1">
+      <c r="A35" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1">
+      <c r="A36" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="1:1">
+      <c r="A37" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="38" spans="1:1">
+      <c r="A38" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="1:1">
+      <c r="A39" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="40" spans="1:1">
+      <c r="A40" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="41" spans="1:1">
+      <c r="A41" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="42" spans="1:1">
+      <c r="A42" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="43" spans="1:1">
+      <c r="A43" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="44" spans="1:1">
+      <c r="A44" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="45" spans="1:1">
+      <c r="A45" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="46" spans="1:1">
+      <c r="A46" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="47" spans="1:1">
+      <c r="A47" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="48" spans="1:1">
+      <c r="A48" t="s">
+        <v>8</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/dfh.xlsx
+++ b/dfh.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="10">
   <si>
     <t>姓名</t>
   </si>
@@ -401,7 +401,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:A48"/>
+  <dimension ref="A1:A60"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -647,6 +647,66 @@
         <v>8</v>
       </c>
     </row>
+    <row r="49" spans="1:1">
+      <c r="A49" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="50" spans="1:1">
+      <c r="A50" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="51" spans="1:1">
+      <c r="A51" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="52" spans="1:1">
+      <c r="A52" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="53" spans="1:1">
+      <c r="A53" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="54" spans="1:1">
+      <c r="A54" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="55" spans="1:1">
+      <c r="A55" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="56" spans="1:1">
+      <c r="A56" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="57" spans="1:1">
+      <c r="A57" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="58" spans="1:1">
+      <c r="A58" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="59" spans="1:1">
+      <c r="A59" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="60" spans="1:1">
+      <c r="A60" t="s">
+        <v>8</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/dfh.xlsx
+++ b/dfh.xlsx
@@ -1,60 +1,39 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Alpha\Desktop\planwork\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
   <si>
-    <t>姓名</t>
-  </si>
-  <si>
-    <t>b4</t>
-  </si>
-  <si>
-    <t>b1</t>
-  </si>
-  <si>
-    <t>b3</t>
-  </si>
-  <si>
-    <t>a4</t>
-  </si>
-  <si>
-    <t>a3</t>
-  </si>
-  <si>
-    <t>b2</t>
-  </si>
-  <si>
-    <t>a5</t>
-  </si>
-  <si>
-    <t>a1</t>
-  </si>
-  <si>
-    <t>a2</t>
+    <t>name</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -62,8 +41,15 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -109,15 +95,23 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -159,7 +153,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -191,9 +185,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -225,6 +220,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -400,314 +396,22 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:A60"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I16" sqref="I16"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData>
-    <row r="1" spans="1:1">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:1">
-      <c r="A2" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:1">
-      <c r="A3" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:1">
-      <c r="A4" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="5" spans="1:1">
-      <c r="A5" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="6" spans="1:1">
-      <c r="A6" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="7" spans="1:1">
-      <c r="A7" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="8" spans="1:1">
-      <c r="A8" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="9" spans="1:1">
-      <c r="A9" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="10" spans="1:1">
-      <c r="A10" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="11" spans="1:1">
-      <c r="A11" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="12" spans="1:1">
-      <c r="A12" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="13" spans="1:1">
-      <c r="A13" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="14" spans="1:1">
-      <c r="A14" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="15" spans="1:1">
-      <c r="A15" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="16" spans="1:1">
-      <c r="A16" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="17" spans="1:1">
-      <c r="A17" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="18" spans="1:1">
-      <c r="A18" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="19" spans="1:1">
-      <c r="A19" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="20" spans="1:1">
-      <c r="A20" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="21" spans="1:1">
-      <c r="A21" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="22" spans="1:1">
-      <c r="A22" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="23" spans="1:1">
-      <c r="A23" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="24" spans="1:1">
-      <c r="A24" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="25" spans="1:1">
-      <c r="A25" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="26" spans="1:1">
-      <c r="A26" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="27" spans="1:1">
-      <c r="A27" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="28" spans="1:1">
-      <c r="A28" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="29" spans="1:1">
-      <c r="A29" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="30" spans="1:1">
-      <c r="A30" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="31" spans="1:1">
-      <c r="A31" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="32" spans="1:1">
-      <c r="A32" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="33" spans="1:1">
-      <c r="A33" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="34" spans="1:1">
-      <c r="A34" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="35" spans="1:1">
-      <c r="A35" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="36" spans="1:1">
-      <c r="A36" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="37" spans="1:1">
-      <c r="A37" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="38" spans="1:1">
-      <c r="A38" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="39" spans="1:1">
-      <c r="A39" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="40" spans="1:1">
-      <c r="A40" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="41" spans="1:1">
-      <c r="A41" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="42" spans="1:1">
-      <c r="A42" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="43" spans="1:1">
-      <c r="A43" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="44" spans="1:1">
-      <c r="A44" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="45" spans="1:1">
-      <c r="A45" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="46" spans="1:1">
-      <c r="A46" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="47" spans="1:1">
-      <c r="A47" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="48" spans="1:1">
-      <c r="A48" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="49" spans="1:1">
-      <c r="A49" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="50" spans="1:1">
-      <c r="A50" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="51" spans="1:1">
-      <c r="A51" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="52" spans="1:1">
-      <c r="A52" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="53" spans="1:1">
-      <c r="A53" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="54" spans="1:1">
-      <c r="A54" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="55" spans="1:1">
-      <c r="A55" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="56" spans="1:1">
-      <c r="A56" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="57" spans="1:1">
-      <c r="A57" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="58" spans="1:1">
-      <c r="A58" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="59" spans="1:1">
-      <c r="A59" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="60" spans="1:1">
-      <c r="A60" t="s">
-        <v>8</v>
-      </c>
-    </row>
   </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>